--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H2">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I2">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J2">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N2">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P2">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q2">
-        <v>155.5593345175892</v>
+        <v>211.0470715363444</v>
       </c>
       <c r="R2">
-        <v>155.5593345175892</v>
+        <v>1899.4236438271</v>
       </c>
       <c r="S2">
-        <v>0.0001950058899354251</v>
+        <v>0.0002126658564905912</v>
       </c>
       <c r="T2">
-        <v>0.0001950058899354251</v>
+        <v>0.0002126658564905913</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H3">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I3">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J3">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N3">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P3">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q3">
-        <v>5447.284314013021</v>
+        <v>5711.531943608811</v>
       </c>
       <c r="R3">
-        <v>5447.284314013021</v>
+        <v>51403.7874924793</v>
       </c>
       <c r="S3">
-        <v>0.006828600345196779</v>
+        <v>0.005755340852724244</v>
       </c>
       <c r="T3">
-        <v>0.006828600345196779</v>
+        <v>0.005755340852724245</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H4">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I4">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J4">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N4">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P4">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q4">
-        <v>7449.848805205568</v>
+        <v>7795.526673669077</v>
       </c>
       <c r="R4">
-        <v>7449.848805205568</v>
+        <v>70159.7400630217</v>
       </c>
       <c r="S4">
-        <v>0.009338972814769983</v>
+        <v>0.007855320354755961</v>
       </c>
       <c r="T4">
-        <v>0.009338972814769983</v>
+        <v>0.007855320354755963</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H5">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I5">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J5">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N5">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P5">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q5">
-        <v>5443.162964193281</v>
+        <v>5849.192081058011</v>
       </c>
       <c r="R5">
-        <v>5443.162964193281</v>
+        <v>52642.7287295221</v>
       </c>
       <c r="S5">
-        <v>0.006823433908275293</v>
+        <v>0.005894056878595302</v>
       </c>
       <c r="T5">
-        <v>0.006823433908275293</v>
+        <v>0.005894056878595302</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.9220156504909</v>
+        <v>31.29063333333333</v>
       </c>
       <c r="H6">
-        <v>29.9220156504909</v>
+        <v>93.8719</v>
       </c>
       <c r="I6">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="J6">
-        <v>0.02376692170035484</v>
+        <v>0.02026792284095206</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N6">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P6">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q6">
-        <v>463.4002459027481</v>
+        <v>546.3482675995111</v>
       </c>
       <c r="R6">
-        <v>463.4002459027481</v>
+        <v>4917.1344083956</v>
       </c>
       <c r="S6">
-        <v>0.000580908742177362</v>
+        <v>0.0005505388983859544</v>
       </c>
       <c r="T6">
-        <v>0.000580908742177362</v>
+        <v>0.0005505388983859544</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H7">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I7">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J7">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N7">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P7">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q7">
-        <v>875.1053733528742</v>
+        <v>1148.171634935347</v>
       </c>
       <c r="R7">
-        <v>875.1053733528742</v>
+        <v>10333.54471441812</v>
       </c>
       <c r="S7">
-        <v>0.001097013577791142</v>
+        <v>0.001156978404695269</v>
       </c>
       <c r="T7">
-        <v>0.001097013577791142</v>
+        <v>0.001156978404695269</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H8">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I8">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J8">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N8">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P8">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q8">
-        <v>30643.91981462622</v>
+        <v>31072.7787973569</v>
       </c>
       <c r="R8">
-        <v>30643.91981462622</v>
+        <v>279655.0091762121</v>
       </c>
       <c r="S8">
-        <v>0.03841456941875327</v>
+        <v>0.03131111494880233</v>
       </c>
       <c r="T8">
-        <v>0.03841456941875327</v>
+        <v>0.03131111494880234</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H9">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I9">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J9">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N9">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P9">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q9">
-        <v>41909.42793834547</v>
+        <v>42410.45630688767</v>
       </c>
       <c r="R9">
-        <v>41909.42793834547</v>
+        <v>381694.106761989</v>
       </c>
       <c r="S9">
-        <v>0.05253677201143817</v>
+        <v>0.0427357553412337</v>
       </c>
       <c r="T9">
-        <v>0.05253677201143817</v>
+        <v>0.0427357553412337</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H10">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I10">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J10">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N10">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P10">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q10">
-        <v>30620.73499332375</v>
+        <v>31821.6992345365</v>
       </c>
       <c r="R10">
-        <v>30620.73499332375</v>
+        <v>286395.2931108284</v>
       </c>
       <c r="S10">
-        <v>0.0383855054173862</v>
+        <v>0.03206577979705956</v>
       </c>
       <c r="T10">
-        <v>0.0383855054173862</v>
+        <v>0.03206577979705955</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>168.327517975674</v>
+        <v>170.232249</v>
       </c>
       <c r="H11">
-        <v>168.327517975674</v>
+        <v>510.696747</v>
       </c>
       <c r="I11">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="J11">
-        <v>0.1337017862189803</v>
+        <v>0.1102647572204378</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N11">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P11">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q11">
-        <v>2606.876960872349</v>
+        <v>2972.330196705892</v>
       </c>
       <c r="R11">
-        <v>2606.876960872349</v>
+        <v>26750.97177035303</v>
       </c>
       <c r="S11">
-        <v>0.003267925793611496</v>
+        <v>0.002995128728646916</v>
       </c>
       <c r="T11">
-        <v>0.003267925793611496</v>
+        <v>0.002995128728646916</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H12">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I12">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J12">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N12">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P12">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q12">
-        <v>3073.502807344984</v>
+        <v>4073.66232271809</v>
       </c>
       <c r="R12">
-        <v>3073.502807344984</v>
+        <v>36662.96090446282</v>
       </c>
       <c r="S12">
-        <v>0.003852878080405821</v>
+        <v>0.004104908353419646</v>
       </c>
       <c r="T12">
-        <v>0.003852878080405821</v>
+        <v>0.004104908353419647</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H13">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I13">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J13">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N13">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P13">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q13">
-        <v>107626.0944638604</v>
+        <v>110244.8487643348</v>
       </c>
       <c r="R13">
-        <v>107626.0944638604</v>
+        <v>992203.6388790131</v>
       </c>
       <c r="S13">
-        <v>0.1349177945269889</v>
+        <v>0.1110904549182784</v>
       </c>
       <c r="T13">
-        <v>0.1349177945269889</v>
+        <v>0.1110904549182785</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H14">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I14">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J14">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N14">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P14">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q14">
-        <v>147192.2677485227</v>
+        <v>150470.4285403971</v>
       </c>
       <c r="R14">
-        <v>147192.2677485227</v>
+        <v>1354233.856863574</v>
       </c>
       <c r="S14">
-        <v>0.1845171120905543</v>
+        <v>0.1516245751675316</v>
       </c>
       <c r="T14">
-        <v>0.1845171120905543</v>
+        <v>0.1516245751675316</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H15">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I15">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J15">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N15">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P15">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q15">
-        <v>107544.6658547686</v>
+        <v>112901.9854456672</v>
       </c>
       <c r="R15">
-        <v>107544.6658547686</v>
+        <v>1016117.869011005</v>
       </c>
       <c r="S15">
-        <v>0.1348157173457551</v>
+        <v>0.1137679725167674</v>
       </c>
       <c r="T15">
-        <v>0.1348157173457551</v>
+        <v>0.1137679725167674</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>591.1917750767039</v>
+        <v>603.9765116666666</v>
       </c>
       <c r="H16">
-        <v>591.1917750767039</v>
+        <v>1811.929535</v>
       </c>
       <c r="I16">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="J16">
-        <v>0.4695809531103998</v>
+        <v>0.391214495590503</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N16">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P16">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q16">
-        <v>9155.747298118007</v>
+        <v>10545.69644866715</v>
       </c>
       <c r="R16">
-        <v>9155.747298118007</v>
+        <v>94911.26803800435</v>
       </c>
       <c r="S16">
-        <v>0.01147745106669563</v>
+        <v>0.0106265846345059</v>
       </c>
       <c r="T16">
-        <v>0.01147745106669563</v>
+        <v>0.0106265846345059</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H17">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I17">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J17">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N17">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P17">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q17">
-        <v>2267.917265801884</v>
+        <v>4686.828557771604</v>
       </c>
       <c r="R17">
-        <v>2267.917265801884</v>
+        <v>42181.45701994444</v>
       </c>
       <c r="S17">
-        <v>0.002843013092651192</v>
+        <v>0.004722777730139762</v>
       </c>
       <c r="T17">
-        <v>0.002843013092651192</v>
+        <v>0.004722777730139763</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H18">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I18">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J18">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N18">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P18">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q18">
-        <v>79416.57879800862</v>
+        <v>126838.8650316839</v>
       </c>
       <c r="R18">
-        <v>79416.57879800862</v>
+        <v>1141549.785285155</v>
       </c>
       <c r="S18">
-        <v>0.09955494263432575</v>
+        <v>0.1278117515296218</v>
       </c>
       <c r="T18">
-        <v>0.09955494263432575</v>
+        <v>0.1278117515296218</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H19">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I19">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J19">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N19">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P19">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q19">
-        <v>108612.1947315791</v>
+        <v>173119.1850758782</v>
       </c>
       <c r="R19">
-        <v>108612.1947315791</v>
+        <v>1558072.665682904</v>
       </c>
       <c r="S19">
-        <v>0.1361539489555764</v>
+        <v>0.1744470534516497</v>
       </c>
       <c r="T19">
-        <v>0.1361539489555764</v>
+        <v>0.1744470534516497</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H20">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I20">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J20">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N20">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P20">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q20">
-        <v>79356.49316930892</v>
+        <v>129895.9530015237</v>
       </c>
       <c r="R20">
-        <v>79356.49316930892</v>
+        <v>1169063.577013714</v>
       </c>
       <c r="S20">
-        <v>0.09947962056166935</v>
+        <v>0.1308922881451753</v>
       </c>
       <c r="T20">
-        <v>0.09947962056166935</v>
+        <v>0.1308922881451753</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>436.236476144538</v>
+        <v>694.886846</v>
       </c>
       <c r="H21">
-        <v>436.236476144538</v>
+        <v>2084.660538</v>
       </c>
       <c r="I21">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="J21">
-        <v>0.3465006599980123</v>
+        <v>0.4500999653118942</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N21">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O21">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P21">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q21">
-        <v>6755.964995085842</v>
+        <v>12133.03100788804</v>
       </c>
       <c r="R21">
-        <v>6755.964995085842</v>
+        <v>109197.2790709923</v>
       </c>
       <c r="S21">
-        <v>0.008469134753789586</v>
+        <v>0.01222609445530762</v>
       </c>
       <c r="T21">
-        <v>0.008469134753789586</v>
+        <v>0.01222609445530762</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H22">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I22">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J22">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.19882538444689</v>
+        <v>6.744736333333333</v>
       </c>
       <c r="N22">
-        <v>5.19882538444689</v>
+        <v>20.234209</v>
       </c>
       <c r="O22">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="P22">
-        <v>0.008204928361947422</v>
+        <v>0.01049273071342527</v>
       </c>
       <c r="Q22">
-        <v>173.1185262863087</v>
+        <v>293.1518193350881</v>
       </c>
       <c r="R22">
-        <v>173.1185262863087</v>
+        <v>2638.366374015793</v>
       </c>
       <c r="S22">
-        <v>0.0002170177211638414</v>
+        <v>0.0002954003686800052</v>
       </c>
       <c r="T22">
-        <v>0.0002170177211638414</v>
+        <v>0.0002954003686800052</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H23">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I23">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J23">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>182.049377209107</v>
+        <v>182.5316823333334</v>
       </c>
       <c r="N23">
-        <v>182.049377209107</v>
+        <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.2873153044929174</v>
+        <v>0.283963033503136</v>
       </c>
       <c r="P23">
-        <v>0.2873153044929174</v>
+        <v>0.2839630335031361</v>
       </c>
       <c r="Q23">
-        <v>6062.161654451095</v>
+        <v>7933.51913518997</v>
       </c>
       <c r="R23">
-        <v>6062.161654451095</v>
+        <v>71401.67221670972</v>
       </c>
       <c r="S23">
-        <v>0.00759939756765273</v>
+        <v>0.007994371253709241</v>
       </c>
       <c r="T23">
-        <v>0.00759939756765273</v>
+        <v>0.007994371253709241</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H24">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I24">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J24">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>248.975499920352</v>
+        <v>249.1329143333333</v>
       </c>
       <c r="N24">
-        <v>248.975499920352</v>
+        <v>747.398743</v>
       </c>
       <c r="O24">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="P24">
-        <v>0.3929399411717063</v>
+        <v>0.3875740210972192</v>
       </c>
       <c r="Q24">
-        <v>8290.77117237974</v>
+        <v>10828.26125198213</v>
       </c>
       <c r="R24">
-        <v>8290.77117237974</v>
+        <v>97454.35126783911</v>
       </c>
       <c r="S24">
-        <v>0.01039313529936754</v>
+        <v>0.01091131678204829</v>
       </c>
       <c r="T24">
-        <v>0.01039313529936754</v>
+        <v>0.01091131678204829</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H25">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I25">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J25">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>181.911640839075</v>
+        <v>186.9310863333334</v>
       </c>
       <c r="N25">
-        <v>181.911640839075</v>
+        <v>560.793259</v>
       </c>
       <c r="O25">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="P25">
-        <v>0.2870979251879059</v>
+        <v>0.2908071500393791</v>
       </c>
       <c r="Q25">
-        <v>6057.5750958282</v>
+        <v>8124.733917036407</v>
       </c>
       <c r="R25">
-        <v>6057.5750958282</v>
+        <v>73122.60525332765</v>
       </c>
       <c r="S25">
-        <v>0.007593647954819966</v>
+        <v>0.008187052701781506</v>
       </c>
       <c r="T25">
-        <v>0.007593647954819966</v>
+        <v>0.008187052701781506</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>33.299546240622</v>
+        <v>43.46379233333334</v>
       </c>
       <c r="H26">
-        <v>33.299546240622</v>
+        <v>130.391377</v>
       </c>
       <c r="I26">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="J26">
-        <v>0.02644967897225281</v>
+        <v>0.02815285903621308</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>15.4869328094595</v>
+        <v>17.46044133333334</v>
       </c>
       <c r="N26">
-        <v>15.4869328094595</v>
+        <v>52.38132400000001</v>
       </c>
       <c r="O26">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="P26">
-        <v>0.0244419007855228</v>
+        <v>0.02716306464684043</v>
       </c>
       <c r="Q26">
-        <v>515.7078352140026</v>
+        <v>758.89699616035</v>
       </c>
       <c r="R26">
-        <v>515.7078352140026</v>
+        <v>6830.072965443149</v>
       </c>
       <c r="S26">
-        <v>0.0006464804292487318</v>
+        <v>0.0007647179299940417</v>
       </c>
       <c r="T26">
-        <v>0.0006464804292487318</v>
+        <v>0.0007647179299940417</v>
       </c>
     </row>
   </sheetData>
